--- a/src/main/resources/testDataRegister.xlsx
+++ b/src/main/resources/testDataRegister.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chuong trinh\eclipse-java-2022-03-R-win32-x86_64\eclipse-java-2022-03-R-win32-x86_64\DACN_Tester\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ACCCCE-4F5F-4BF8-8C81-7CAB3EB9D0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D880F73F-F28E-43E0-9AF2-866B6A1580FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AC677799-098A-4065-AC80-450F492020E2}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Test Case name</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Abcd123</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
   <si>
     <t>Failed</t>
@@ -219,7 +222,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,18 +627,18 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="21.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="16.44140625" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.21875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -705,7 +707,7 @@
         <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -751,7 +753,7 @@
         <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -774,7 +776,7 @@
         <v>56</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -797,7 +799,7 @@
         <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -820,7 +822,7 @@
         <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -843,7 +845,7 @@
         <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -866,7 +868,7 @@
         <v>57</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +891,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,12 +984,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1168,15 +1167,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BD1D7F-E37F-40AD-990D-7F828027C610}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7707BA32-DFD0-45A1-B8C4-DAFBDAC74B99}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1201,10 +1204,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7707BA32-DFD0-45A1-B8C4-DAFBDAC74B99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62BD1D7F-E37F-40AD-990D-7F828027C610}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/resources/testDataRegister.xlsx
+++ b/src/main/resources/testDataRegister.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chuong trinh\eclipse-java-2022-03-R-win32-x86_64\eclipse-java-2022-03-R-win32-x86_64\DACN_Tester\src\main\resources\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>Test Case name</t>
   </si>
@@ -222,6 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -632,13 +633,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.21875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.21875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="21.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="16.44140625" collapsed="true"/>
+    <col min="7" max="16384" style="1" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -868,7 +869,7 @@
         <v>57</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
